--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -10,9 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -92,7 +98,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> system's performance (scale-free topology with most-filled selection metric)</a:t>
+              <a:t> algorithm's performance (scale-free topology with 'pick most-filled' selection metric)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1014,12 +1020,12 @@
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="44690816"/>
-        <c:axId val="45618304"/>
-        <c:axId val="48104320"/>
+        <c:axId val="94525312"/>
+        <c:axId val="94527488"/>
+        <c:axId val="91994752"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="44690816"/>
+        <c:axId val="94525312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1055,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45618304"/>
+        <c:crossAx val="94527488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1057,7 +1063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45618304"/>
+        <c:axId val="94527488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,12 +1093,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44690816"/>
+        <c:crossAx val="94525312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="48104320"/>
+        <c:axId val="91994752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1127,4795 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45618304"/>
+        <c:crossAx val="94527488"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="111"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="11"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Effects of copy rate and guess rate on the algorithm's performance (scale-free topology with 'pick among first' selection metric)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="130"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.647058823529406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.557692307692307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.4578313253012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.191489361702097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>87.410256410256395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.978260869565204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.569230769230799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.573529411764696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.049382716049394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.126315789473693</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.770114942528707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.9381443298969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.9072164948454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.848484848484802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.938461538461496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.227848101265806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.404255319148902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.224489795918402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>83.357142857142904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.670886075949397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.034883720930196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.172413793103402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.571428571428598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.939393939393895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84.2173913043478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.591549295774598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.568181818181799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.284210526315803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.556701030927798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>80.215384615384593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.468354430379705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.397590361445793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.989473684210495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.686868686868706</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>83.28125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.314285714285703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.568181818181799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.030612244897995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.383838383838395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>81.454545454545496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.531645569620295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.103448275862107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.670103092783506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.540816326530603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts/>
+        <c:axId val="42068992"/>
+        <c:axId val="96326400"/>
+        <c:axId val="42059968"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="42068992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>guess</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.62069938780468603"/>
+              <c:y val="0.80839560348471506"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96326400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96326400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>number of iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.81266070554739978"/>
+              <c:y val="0.36071439004130318"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42068992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="42059968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>copy rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.22317048048263846"/>
+              <c:y val="0.83693305533244644"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96326400"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="111"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="11"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Effects of copy rate and guess rate on the algorithm's convergence (scale-free topology with 'pick among first' selection metric)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="300"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts/>
+        <c:axId val="99956224"/>
+        <c:axId val="99957760"/>
+        <c:axId val="106761280"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="99956224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>guess rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99957760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99957760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>number of times (%) the solution was reached</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99956224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="106761280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>copy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99957760"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="111"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="11"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Effects of copy rate and guess rate on the algorithm's performance (fully-connected topology with 'pick most-filled' selection metric)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="130"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.380952380952394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>74.941176470588204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.852941176470594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.342857142857099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.285714285714306</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.1142857142857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.342857142857099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.514285714285705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.0571428571429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.171428571428599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>65.028571428571396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.971428571428604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.714285714285701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.1142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.514285714285698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.285714285714299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.142857142857103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.257142857142902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.571428571428598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.514285714285698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.0571428571429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.857142857142897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.257142857142902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.714285714285701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.971428571428604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.257142857142902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.628571428571398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.857142857142897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.714285714285701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.028571428571396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.914285714285697</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.857142857142897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.028571428571396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>54.228571428571399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.971428571428604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.485714285714302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.028571428571396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.0571428571429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.285714285714299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.171428571428599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.542857142857102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.342857142857099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>54.028571428571396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.542857142857102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.771428571428601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.171428571428599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.142857142857103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.0571428571429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.914285714285697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.314285714285703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.085714285714303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.028571428571396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>53.028571428571396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.228571428571399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.742857142857098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.857142857142897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.714285714285701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.971428571428604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.914285714285697</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.028571428571396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.771428571428601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>52.314285714285703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.371428571428602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.142857142857103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.742857142857098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.628571428571398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.371428571428602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.142857142857103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.0571428571429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.828571428571401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.771428571428601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.657142857142901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.771428571428601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.685714285714297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.514285714285698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.342857142857099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.228571428571399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.742857142857098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.714285714285701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.742857142857098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.685714285714297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>51.714285714285701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.514285714285698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.514285714285698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.1142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.1142857142857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.085714285714303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.914285714285697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.657142857142901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.657142857142901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.657142857142901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts/>
+        <c:axId val="42617472"/>
+        <c:axId val="42660608"/>
+        <c:axId val="42656192"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="42617472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>guess rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42660608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42660608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>number of iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.82022784267555116"/>
+              <c:y val="0.28440087144949522"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42617472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="42656192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>copy rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42660608"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="111"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="11"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Effects of copy rate and guess rate on the algorithm's convergence (fully-connected topology with 'pick most filled' selection metric)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="320"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts/>
+        <c:axId val="115605888"/>
+        <c:axId val="115608576"/>
+        <c:axId val="115863552"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="115605888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>guess rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115608576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115608576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>number of times (%) the solution was reached</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115605888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="115863552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t>copy rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115608576"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1156,16 +5950,156 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1476,8 +6410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,24 +6804,1724 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>30</v>
+      </c>
+      <c r="F1">
+        <v>40</v>
+      </c>
+      <c r="G1">
+        <v>50</v>
+      </c>
+      <c r="H1">
+        <v>60</v>
+      </c>
+      <c r="I1">
+        <v>70</v>
+      </c>
+      <c r="J1">
+        <v>80</v>
+      </c>
+      <c r="K1">
+        <v>90</v>
+      </c>
+      <c r="L1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <v>89.7777777777778</v>
+      </c>
+      <c r="D2">
+        <v>90.647058823529406</v>
+      </c>
+      <c r="E2">
+        <v>93.4</v>
+      </c>
+      <c r="F2">
+        <v>91.557692307692307</v>
+      </c>
+      <c r="G2">
+        <v>88.4578313253012</v>
+      </c>
+      <c r="H2">
+        <v>85.191489361702097</v>
+      </c>
+      <c r="I2">
+        <v>79.17</v>
+      </c>
+      <c r="J2">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="K2">
+        <v>71.64</v>
+      </c>
+      <c r="L2">
+        <v>70.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>87.410256410256395</v>
+      </c>
+      <c r="C3">
+        <v>86.978260869565204</v>
+      </c>
+      <c r="D3">
+        <v>87.569230769230799</v>
+      </c>
+      <c r="E3">
+        <v>86.573529411764696</v>
+      </c>
+      <c r="F3">
+        <v>84.049382716049394</v>
+      </c>
+      <c r="G3">
+        <v>81.126315789473693</v>
+      </c>
+      <c r="H3">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="I3">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="J3">
+        <v>69.11</v>
+      </c>
+      <c r="K3">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="L3">
+        <v>63.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>84.46</v>
+      </c>
+      <c r="C4">
+        <v>83.428571428571402</v>
+      </c>
+      <c r="D4">
+        <v>85.6666666666667</v>
+      </c>
+      <c r="E4">
+        <v>82.770114942528707</v>
+      </c>
+      <c r="F4">
+        <v>79.9381443298969</v>
+      </c>
+      <c r="G4">
+        <v>76.9072164948454</v>
+      </c>
+      <c r="H4">
+        <v>71.848484848484802</v>
+      </c>
+      <c r="I4">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="J4">
+        <v>66.37</v>
+      </c>
+      <c r="K4">
+        <v>63.38</v>
+      </c>
+      <c r="L4">
+        <v>61.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>82.4</v>
+      </c>
+      <c r="C5">
+        <v>81.938461538461496</v>
+      </c>
+      <c r="D5">
+        <v>81.227848101265806</v>
+      </c>
+      <c r="E5">
+        <v>80.404255319148902</v>
+      </c>
+      <c r="F5">
+        <v>78.224489795918402</v>
+      </c>
+      <c r="G5">
+        <v>74.66</v>
+      </c>
+      <c r="H5">
+        <v>71.08</v>
+      </c>
+      <c r="I5">
+        <v>67.64</v>
+      </c>
+      <c r="J5">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="K5">
+        <v>61.95</v>
+      </c>
+      <c r="L5">
+        <v>59.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>83.357142857142904</v>
+      </c>
+      <c r="C6">
+        <v>83.670886075949397</v>
+      </c>
+      <c r="D6">
+        <v>81.034883720930196</v>
+      </c>
+      <c r="E6">
+        <v>77.172413793103402</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>72.571428571428598</v>
+      </c>
+      <c r="H6">
+        <v>68.939393939393895</v>
+      </c>
+      <c r="I6">
+        <v>66.23</v>
+      </c>
+      <c r="J6">
+        <v>63.2</v>
+      </c>
+      <c r="K6">
+        <v>61.28</v>
+      </c>
+      <c r="L6">
+        <v>59.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>84.2173913043478</v>
+      </c>
+      <c r="C7">
+        <v>81.591549295774598</v>
+      </c>
+      <c r="D7">
+        <v>80.568181818181799</v>
+      </c>
+      <c r="E7">
+        <v>78.284210526315803</v>
+      </c>
+      <c r="F7">
+        <v>75.556701030927798</v>
+      </c>
+      <c r="G7">
+        <v>72.86</v>
+      </c>
+      <c r="H7">
+        <v>67.61</v>
+      </c>
+      <c r="I7">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="J7">
+        <v>62.88</v>
+      </c>
+      <c r="K7">
+        <v>60.22</v>
+      </c>
+      <c r="L7">
+        <v>58.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>80.215384615384593</v>
+      </c>
+      <c r="C8">
+        <v>82.468354430379705</v>
+      </c>
+      <c r="D8">
+        <v>79.397590361445793</v>
+      </c>
+      <c r="E8">
+        <v>76.989473684210495</v>
+      </c>
+      <c r="F8">
+        <v>73.686868686868706</v>
+      </c>
+      <c r="G8">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="H8">
+        <v>67.67</v>
+      </c>
+      <c r="I8">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="J8">
+        <v>62.2</v>
+      </c>
+      <c r="K8">
+        <v>59.95</v>
+      </c>
+      <c r="L8">
+        <v>57.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>83.28125</v>
+      </c>
+      <c r="C9">
+        <v>80.314285714285703</v>
+      </c>
+      <c r="D9">
+        <v>79.568181818181799</v>
+      </c>
+      <c r="E9">
+        <v>78.030612244897995</v>
+      </c>
+      <c r="F9">
+        <v>74.383838383838395</v>
+      </c>
+      <c r="G9">
+        <v>70.61</v>
+      </c>
+      <c r="H9">
+        <v>67.540000000000006</v>
+      </c>
+      <c r="I9">
+        <v>64.11</v>
+      </c>
+      <c r="J9">
+        <v>62.56</v>
+      </c>
+      <c r="K9">
+        <v>59.8</v>
+      </c>
+      <c r="L9">
+        <v>57.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>87</v>
+      </c>
+      <c r="B10">
+        <v>81.454545454545496</v>
+      </c>
+      <c r="C10">
+        <v>80.531645569620295</v>
+      </c>
+      <c r="D10">
+        <v>79.103448275862107</v>
+      </c>
+      <c r="E10">
+        <v>76.670103092783506</v>
+      </c>
+      <c r="F10">
+        <v>73.540816326530603</v>
+      </c>
+      <c r="G10">
+        <v>68.77</v>
+      </c>
+      <c r="H10">
+        <v>67.02</v>
+      </c>
+      <c r="I10">
+        <v>63.44</v>
+      </c>
+      <c r="J10">
+        <v>61.73</v>
+      </c>
+      <c r="K10">
+        <v>59.07</v>
+      </c>
+      <c r="L10">
+        <v>56.77</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>30</v>
+      </c>
+      <c r="F1">
+        <v>40</v>
+      </c>
+      <c r="G1">
+        <v>50</v>
+      </c>
+      <c r="H1">
+        <v>60</v>
+      </c>
+      <c r="I1">
+        <v>70</v>
+      </c>
+      <c r="J1">
+        <v>80</v>
+      </c>
+      <c r="K1">
+        <v>90</v>
+      </c>
+      <c r="L1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>52</v>
+      </c>
+      <c r="G2">
+        <v>83</v>
+      </c>
+      <c r="H2">
+        <v>94</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>68</v>
+      </c>
+      <c r="F3">
+        <v>81</v>
+      </c>
+      <c r="G3">
+        <v>95</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>87</v>
+      </c>
+      <c r="F4">
+        <v>97</v>
+      </c>
+      <c r="G4">
+        <v>97</v>
+      </c>
+      <c r="H4">
+        <v>99</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>79</v>
+      </c>
+      <c r="E5">
+        <v>94</v>
+      </c>
+      <c r="F5">
+        <v>98</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>86</v>
+      </c>
+      <c r="E6">
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <v>99</v>
+      </c>
+      <c r="G6">
+        <v>98</v>
+      </c>
+      <c r="H6">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>88</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
+      </c>
+      <c r="F7">
+        <v>97</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>83</v>
+      </c>
+      <c r="E8">
+        <v>95</v>
+      </c>
+      <c r="F8">
+        <v>99</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>98</v>
+      </c>
+      <c r="F9">
+        <v>99</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>87</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>87</v>
+      </c>
+      <c r="E10">
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <v>98</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>30</v>
+      </c>
+      <c r="F1">
+        <v>40</v>
+      </c>
+      <c r="G1">
+        <v>50</v>
+      </c>
+      <c r="H1">
+        <v>60</v>
+      </c>
+      <c r="I1">
+        <v>70</v>
+      </c>
+      <c r="J1">
+        <v>80</v>
+      </c>
+      <c r="K1">
+        <v>90</v>
+      </c>
+      <c r="L1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>99999999</v>
+      </c>
+      <c r="C2">
+        <v>99999999</v>
+      </c>
+      <c r="D2">
+        <v>99999999</v>
+      </c>
+      <c r="E2">
+        <v>99999999</v>
+      </c>
+      <c r="F2">
+        <v>99999999</v>
+      </c>
+      <c r="G2">
+        <v>99999999</v>
+      </c>
+      <c r="H2">
+        <v>95</v>
+      </c>
+      <c r="I2">
+        <v>94.6</v>
+      </c>
+      <c r="J2">
+        <v>92</v>
+      </c>
+      <c r="K2">
+        <v>87.380952380952394</v>
+      </c>
+      <c r="L2">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>74.941176470588204</v>
+      </c>
+      <c r="C3">
+        <v>69.852941176470594</v>
+      </c>
+      <c r="D3">
+        <v>70.342857142857099</v>
+      </c>
+      <c r="E3">
+        <v>67.285714285714306</v>
+      </c>
+      <c r="F3">
+        <v>68.1142857142857</v>
+      </c>
+      <c r="G3">
+        <v>66.342857142857099</v>
+      </c>
+      <c r="H3">
+        <v>64.514285714285705</v>
+      </c>
+      <c r="I3">
+        <v>62.0571428571429</v>
+      </c>
+      <c r="J3">
+        <v>60.171428571428599</v>
+      </c>
+      <c r="K3">
+        <v>59.428571428571402</v>
+      </c>
+      <c r="L3">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>65.028571428571396</v>
+      </c>
+      <c r="C4">
+        <v>63.971428571428604</v>
+      </c>
+      <c r="D4">
+        <v>60.714285714285701</v>
+      </c>
+      <c r="E4">
+        <v>58.1142857142857</v>
+      </c>
+      <c r="F4">
+        <v>58.514285714285698</v>
+      </c>
+      <c r="G4">
+        <v>58.285714285714299</v>
+      </c>
+      <c r="H4">
+        <v>56.142857142857103</v>
+      </c>
+      <c r="I4">
+        <v>54.8</v>
+      </c>
+      <c r="J4">
+        <v>55.257142857142902</v>
+      </c>
+      <c r="K4">
+        <v>53.571428571428598</v>
+      </c>
+      <c r="L4">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>58.2</v>
+      </c>
+      <c r="C5">
+        <v>57.514285714285698</v>
+      </c>
+      <c r="D5">
+        <v>56.0571428571429</v>
+      </c>
+      <c r="E5">
+        <v>55.6</v>
+      </c>
+      <c r="F5">
+        <v>54.857142857142897</v>
+      </c>
+      <c r="G5">
+        <v>54.257142857142902</v>
+      </c>
+      <c r="H5">
+        <v>53.428571428571402</v>
+      </c>
+      <c r="I5">
+        <v>53.2</v>
+      </c>
+      <c r="J5">
+        <v>52.714285714285701</v>
+      </c>
+      <c r="K5">
+        <v>52.971428571428604</v>
+      </c>
+      <c r="L5">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>55.257142857142902</v>
+      </c>
+      <c r="D6">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="F6">
+        <v>53.628571428571398</v>
+      </c>
+      <c r="G6">
+        <v>52.857142857142897</v>
+      </c>
+      <c r="H6">
+        <v>52.714285714285701</v>
+      </c>
+      <c r="I6">
+        <v>52.028571428571396</v>
+      </c>
+      <c r="J6">
+        <v>51.914285714285697</v>
+      </c>
+      <c r="K6">
+        <v>51.857142857142897</v>
+      </c>
+      <c r="L6">
+        <v>52.028571428571396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>54.228571428571399</v>
+      </c>
+      <c r="C7">
+        <v>53.971428571428604</v>
+      </c>
+      <c r="D7">
+        <v>53.485714285714302</v>
+      </c>
+      <c r="E7">
+        <v>53.028571428571396</v>
+      </c>
+      <c r="F7">
+        <v>53.0571428571429</v>
+      </c>
+      <c r="G7">
+        <v>52.285714285714299</v>
+      </c>
+      <c r="H7">
+        <v>52.171428571428599</v>
+      </c>
+      <c r="I7">
+        <v>51.542857142857102</v>
+      </c>
+      <c r="J7">
+        <v>51.342857142857099</v>
+      </c>
+      <c r="K7">
+        <v>51.2</v>
+      </c>
+      <c r="L7">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>54.028571428571396</v>
+      </c>
+      <c r="C8">
+        <v>53.542857142857102</v>
+      </c>
+      <c r="D8">
+        <v>52.771428571428601</v>
+      </c>
+      <c r="E8">
+        <v>52.171428571428599</v>
+      </c>
+      <c r="F8">
+        <v>52.142857142857103</v>
+      </c>
+      <c r="G8">
+        <v>52.0571428571429</v>
+      </c>
+      <c r="H8">
+        <v>51.914285714285697</v>
+      </c>
+      <c r="I8">
+        <v>51.314285714285703</v>
+      </c>
+      <c r="J8">
+        <v>51.085714285714303</v>
+      </c>
+      <c r="K8">
+        <v>51.028571428571396</v>
+      </c>
+      <c r="L8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>53.028571428571396</v>
+      </c>
+      <c r="C9">
+        <v>52.6</v>
+      </c>
+      <c r="D9">
+        <v>52.228571428571399</v>
+      </c>
+      <c r="E9">
+        <v>51.742857142857098</v>
+      </c>
+      <c r="F9">
+        <v>51.857142857142897</v>
+      </c>
+      <c r="G9">
+        <v>51.714285714285701</v>
+      </c>
+      <c r="H9">
+        <v>51.6</v>
+      </c>
+      <c r="I9">
+        <v>50.971428571428604</v>
+      </c>
+      <c r="J9">
+        <v>50.914285714285697</v>
+      </c>
+      <c r="K9">
+        <v>51.028571428571396</v>
+      </c>
+      <c r="L9">
+        <v>50.771428571428601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>52.314285714285703</v>
+      </c>
+      <c r="C10">
+        <v>52.371428571428602</v>
+      </c>
+      <c r="D10">
+        <v>52.142857142857103</v>
+      </c>
+      <c r="E10">
+        <v>51.742857142857098</v>
+      </c>
+      <c r="F10">
+        <v>51.628571428571398</v>
+      </c>
+      <c r="G10">
+        <v>51.371428571428602</v>
+      </c>
+      <c r="H10">
+        <v>51.142857142857103</v>
+      </c>
+      <c r="I10">
+        <v>51.0571428571429</v>
+      </c>
+      <c r="J10">
+        <v>50.828571428571401</v>
+      </c>
+      <c r="K10">
+        <v>50.771428571428601</v>
+      </c>
+      <c r="L10">
+        <v>50.657142857142901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>52.2</v>
+      </c>
+      <c r="C11">
+        <v>51.771428571428601</v>
+      </c>
+      <c r="D11">
+        <v>51.685714285714297</v>
+      </c>
+      <c r="E11">
+        <v>51.514285714285698</v>
+      </c>
+      <c r="F11">
+        <v>51.342857142857099</v>
+      </c>
+      <c r="G11">
+        <v>51.228571428571399</v>
+      </c>
+      <c r="H11">
+        <v>51</v>
+      </c>
+      <c r="I11">
+        <v>50.742857142857098</v>
+      </c>
+      <c r="J11">
+        <v>50.714285714285701</v>
+      </c>
+      <c r="K11">
+        <v>50.742857142857098</v>
+      </c>
+      <c r="L11">
+        <v>50.685714285714297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>51.714285714285701</v>
+      </c>
+      <c r="C12">
+        <v>51.514285714285698</v>
+      </c>
+      <c r="D12">
+        <v>51.514285714285698</v>
+      </c>
+      <c r="E12">
+        <v>51.1142857142857</v>
+      </c>
+      <c r="F12">
+        <v>51.1142857142857</v>
+      </c>
+      <c r="G12">
+        <v>51.085714285714303</v>
+      </c>
+      <c r="H12">
+        <v>50.914285714285697</v>
+      </c>
+      <c r="I12">
+        <v>50.657142857142901</v>
+      </c>
+      <c r="J12">
+        <v>50.657142857142901</v>
+      </c>
+      <c r="K12">
+        <v>50.6</v>
+      </c>
+      <c r="L12">
+        <v>50.657142857142901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>30</v>
+      </c>
+      <c r="F1">
+        <v>40</v>
+      </c>
+      <c r="G1">
+        <v>50</v>
+      </c>
+      <c r="H1">
+        <v>60</v>
+      </c>
+      <c r="I1">
+        <v>70</v>
+      </c>
+      <c r="J1">
+        <v>80</v>
+      </c>
+      <c r="K1">
+        <v>90</v>
+      </c>
+      <c r="L1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>35</v>
+      </c>
+      <c r="L3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>35</v>
+      </c>
+      <c r="L4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>35</v>
+      </c>
+      <c r="L5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>35</v>
+      </c>
+      <c r="L6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>35</v>
+      </c>
+      <c r="L9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>35</v>
+      </c>
+      <c r="L11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>35</v>
+      </c>
+      <c r="L12">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>